--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2264.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2264.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.150284371806851</v>
+        <v>1.226199269294739</v>
       </c>
       <c r="B1">
-        <v>2.245329789131724</v>
+        <v>2.81964373588562</v>
       </c>
       <c r="C1">
-        <v>5.89234634452945</v>
+        <v>5.020196437835693</v>
       </c>
       <c r="D1">
-        <v>2.701695503003447</v>
+        <v>2.082340002059937</v>
       </c>
       <c r="E1">
-        <v>1.223016000024</v>
+        <v>1.160632014274597</v>
       </c>
     </row>
   </sheetData>
